--- a/icsを日報Formatに変換するツール.xlsx
+++ b/icsを日報Formatに変換するツール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\66\Dropbox\AHK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,16 +92,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Outlookの予定表ファイル（ics形式）</t>
-    <rPh sb="9" eb="12">
-      <t>ヨテイヒョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケイシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.Outlookの予定表ファイル（ics形式）をテキストファイルなり何なりで開きます</t>
     <rPh sb="10" eb="13">
       <t>ヨテイヒョウ</t>
@@ -114,22 +104,6 @@
     </rPh>
     <rPh sb="39" eb="40">
       <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.予定表ファイルのテキスト（多分BEGIN:VCALENDARとかで始まってる）を、全選択＋コピーします</t>
-    <rPh sb="2" eb="5">
-      <t>ヨテイヒョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>タブン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ゼンセンタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -183,6 +157,35 @@
     </rPh>
     <rPh sb="37" eb="38">
       <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2icsのテキスト（多分BEGIN:VCALENDARとかで始まってる）を、全選択＋コピーします</t>
+    <rPh sb="10" eb="12">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Outlookの予定表ファイル（ics形式、1日分）</t>
+    <rPh sb="9" eb="12">
+      <t>ヨテイヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,9 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -418,6 +418,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,7 +705,7 @@
   <dimension ref="B1:O164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,13 +719,13 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -738,40 +741,40 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="str">
+      <c r="B3" s="6" t="str">
         <f>LEFT(B12,5)</f>
         <v/>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="7" t="str">
         <f>LEFT(C12,5)</f>
         <v/>
       </c>
-      <c r="D3" s="9" t="e">
+      <c r="D3" s="8" t="e">
         <f>MID($D$12,1,FIND("*",SUBSTITUTE($D$12,",","*",1),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="G3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="e">
+      <c r="B4" s="6" t="e">
         <f>MID(B12,FIND("*",SUBSTITUTE(B12,",","*",1),1)+1,FIND("*",SUBSTITUTE(B12,",","*",2))-FIND("*",SUBSTITUTE(B12,",","*",1),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" s="8" t="e">
+      <c r="C4" s="7" t="e">
         <f>MID(C12,FIND("*",SUBSTITUTE(C12,",","*",1),1)+1,FIND("*",SUBSTITUTE(C12,",","*",2))-FIND("*",SUBSTITUTE(C12,",","*",1),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="9" t="e">
+      <c r="D4" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",1),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",2))-FIND("*",SUBSTITUTE($D$12,",","*",1),1)-1)</f>
         <v>#VALUE!</v>
       </c>
@@ -788,143 +791,143 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="e">
+      <c r="B5" s="6" t="e">
         <f>MID(B12,FIND("*",SUBSTITUTE(B12,",","*",2),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C5" s="8" t="e">
+      <c r="C5" s="7" t="e">
         <f>MID(C12,FIND("*",SUBSTITUTE(C12,",","*",2),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="9" t="e">
+      <c r="D5" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",2),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",3))-FIND("*",SUBSTITUTE($D$12,",","*",2),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="e">
+      <c r="B6" s="6" t="e">
         <f>MID(B12,FIND("*",SUBSTITUTE(B12,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C6" s="8" t="e">
+      <c r="C6" s="7" t="e">
         <f>MID(C12,FIND("*",SUBSTITUTE(C12,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="9" t="e">
+      <c r="D6" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",3),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",4))-FIND("*",SUBSTITUTE($D$12,",","*",3),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="G6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="e">
+      <c r="B7" s="6" t="e">
         <f>MID(B13,FIND("*",SUBSTITUTE(B13,",","*",4),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C7" s="8" t="e">
+      <c r="C7" s="7" t="e">
         <f>MID(C13,FIND("*",SUBSTITUTE(C13,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D7" s="9" t="e">
+      <c r="D7" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",4),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",5))-FIND("*",SUBSTITUTE($D$12,",","*",4),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="G7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="e">
+      <c r="B8" s="6" t="e">
         <f>MID(B14,FIND("*",SUBSTITUTE(B14,",","*",4),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="8" t="e">
+      <c r="C8" s="7" t="e">
         <f>MID(C14,FIND("*",SUBSTITUTE(C14,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="9" t="e">
+      <c r="D8" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",5),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",6))-FIND("*",SUBSTITUTE($D$12,",","*",5),1)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="G8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="e">
+      <c r="B9" s="6" t="e">
         <f>MID(B15,FIND("*",SUBSTITUTE(B15,",","*",4),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="8" t="e">
+      <c r="C9" s="7" t="e">
         <f>MID(C15,FIND("*",SUBSTITUTE(C15,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="9" t="e">
+      <c r="D9" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",6),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",7))-FIND("*",SUBSTITUTE($D$12,",","*",6),1)-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="e">
+      <c r="B10" s="6" t="e">
         <f>MID(B16,FIND("*",SUBSTITUTE(B16,",","*",4),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="8" t="e">
+      <c r="C10" s="7" t="e">
         <f>MID(C16,FIND("*",SUBSTITUTE(C16,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="9" t="e">
+      <c r="D10" s="8" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",7),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",8))-FIND("*",SUBSTITUTE($D$12,",","*",7),1)-1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="e">
+      <c r="B11" s="9" t="e">
         <f>MID(B17,FIND("*",SUBSTITUTE(B17,",","*",4),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="11" t="e">
+      <c r="C11" s="10" t="e">
         <f>MID(C17,FIND("*",SUBSTITUTE(C17,",","*",3),1)+1,5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="12" t="e">
+      <c r="D11" s="11" t="e">
         <f>MID($D$12,FIND("*",SUBSTITUTE($D$12,",","*",8),1)+1,FIND("*",SUBSTITUTE($D$12,",","*",9))-FIND("*",SUBSTITUTE($D$12,",","*",8),1)-1)</f>
         <v>#VALUE!</v>
       </c>
@@ -944,12 +947,12 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="str">
@@ -979,7 +982,7 @@
         <f t="shared" ref="D15:D78" si="2">IF(COUNTIF(E15,"*SUMMARY*")&gt;0,RIGHT(E15, LEN(E15)-20),"")</f>
         <v/>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="str">
@@ -994,7 +997,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="str">
@@ -1009,7 +1012,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="str">
@@ -1024,7 +1027,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="str">
@@ -1039,7 +1042,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="str">
@@ -1054,7 +1057,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="str">
@@ -1069,7 +1072,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="str">
@@ -1084,7 +1087,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="str">
@@ -1099,7 +1102,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="str">
@@ -1114,7 +1117,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="str">
@@ -1129,7 +1132,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="str">
@@ -1144,7 +1147,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="str">
@@ -1159,7 +1162,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="str">
@@ -1174,7 +1177,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="str">
@@ -1189,7 +1192,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="str">
@@ -1204,7 +1207,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="str">
@@ -1219,7 +1222,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="str">
@@ -1234,7 +1237,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="str">
@@ -1249,7 +1252,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="str">
@@ -1264,7 +1267,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="2" t="str">
@@ -1279,7 +1282,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="str">
@@ -1294,7 +1297,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="str">
@@ -1309,7 +1312,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="str">
@@ -1324,7 +1327,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="str">
@@ -1339,7 +1342,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="2" t="str">
@@ -1354,7 +1357,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="str">
@@ -1369,7 +1372,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="str">
@@ -1384,7 +1387,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="str">
@@ -1399,7 +1402,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="str">
@@ -1414,7 +1417,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="str">
@@ -1429,7 +1432,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="str">
@@ -1444,7 +1447,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="str">
@@ -1459,7 +1462,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="str">
@@ -1474,7 +1477,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="str">
@@ -1489,7 +1492,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="str">
@@ -1504,7 +1507,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="str">
@@ -1519,7 +1522,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E51" s="6"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="str">
@@ -1534,7 +1537,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="str">
@@ -1549,7 +1552,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="str">
@@ -1564,7 +1567,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="str">
@@ -1579,7 +1582,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="str">
@@ -1594,7 +1597,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="str">
@@ -1609,7 +1612,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="str">
@@ -1624,7 +1627,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="str">
@@ -1639,7 +1642,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E59" s="6"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="str">
@@ -1654,7 +1657,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E60" s="6"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="str">
@@ -1669,7 +1672,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E61" s="6"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="str">
@@ -1684,7 +1687,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="str">
@@ -1699,7 +1702,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="str">
@@ -1714,7 +1717,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="str">
@@ -1729,7 +1732,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E65" s="6"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="str">
@@ -1744,7 +1747,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="str">
@@ -1759,7 +1762,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E67" s="6"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="str">
@@ -1774,7 +1777,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="str">
@@ -1789,7 +1792,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="5"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="str">
@@ -1804,7 +1807,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="str">
@@ -1819,7 +1822,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="5"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="str">
@@ -1834,7 +1837,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="5"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="str">
@@ -1849,7 +1852,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="str">
@@ -1864,7 +1867,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E74" s="6"/>
+      <c r="E74" s="5"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="str">
@@ -1879,7 +1882,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E75" s="6"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="str">
@@ -1894,7 +1897,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E76" s="6"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="str">
@@ -1909,7 +1912,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="str">
@@ -1924,7 +1927,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="str">
@@ -1939,7 +1942,7 @@
         <f t="shared" ref="D79:D142" si="5">IF(COUNTIF(E79,"*SUMMARY*")&gt;0,RIGHT(E79, LEN(E79)-20),"")</f>
         <v/>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="str">
@@ -1954,7 +1957,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="str">
@@ -1969,7 +1972,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="str">
@@ -1984,7 +1987,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E82" s="6"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="str">
@@ -1999,7 +2002,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="str">
@@ -2014,7 +2017,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E84" s="6"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="str">
@@ -2029,7 +2032,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="str">
@@ -2044,7 +2047,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E86" s="6"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="str">
@@ -2059,7 +2062,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E87" s="6"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="str">
@@ -2074,7 +2077,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="str">
@@ -2089,7 +2092,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="str">
@@ -2104,7 +2107,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E90" s="6"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="str">
@@ -2119,7 +2122,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E91" s="6"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="str">
@@ -2134,7 +2137,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E92" s="6"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="str">
@@ -2149,7 +2152,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E93" s="6"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="str">
@@ -2164,7 +2167,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E94" s="6"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="str">
@@ -2179,7 +2182,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E95" s="6"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="str">
@@ -2194,7 +2197,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E96" s="6"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="str">
@@ -2209,7 +2212,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E97" s="6"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="str">
@@ -2224,7 +2227,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E98" s="6"/>
+      <c r="E98" s="5"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="str">
@@ -2239,7 +2242,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E99" s="6"/>
+      <c r="E99" s="5"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="str">
@@ -2254,7 +2257,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E100" s="6"/>
+      <c r="E100" s="5"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="str">
@@ -2269,7 +2272,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="5"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="str">
@@ -2284,7 +2287,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E102" s="6"/>
+      <c r="E102" s="5"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="str">
@@ -2299,7 +2302,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E103" s="6"/>
+      <c r="E103" s="5"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="str">
@@ -2314,7 +2317,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E104" s="6"/>
+      <c r="E104" s="5"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="str">
@@ -2329,7 +2332,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E105" s="6"/>
+      <c r="E105" s="5"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="str">
@@ -2344,7 +2347,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E106" s="6"/>
+      <c r="E106" s="5"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="str">
@@ -2359,7 +2362,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E107" s="6"/>
+      <c r="E107" s="5"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="str">
@@ -2374,7 +2377,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E108" s="6"/>
+      <c r="E108" s="5"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="str">
@@ -2389,7 +2392,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E109" s="6"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="str">
@@ -2404,7 +2407,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E110" s="6"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="str">
@@ -2419,7 +2422,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="str">
@@ -2434,7 +2437,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E112" s="6"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="str">
@@ -2449,7 +2452,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E113" s="6"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="str">
@@ -2464,7 +2467,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E114" s="6"/>
+      <c r="E114" s="5"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="str">
@@ -2479,7 +2482,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E115" s="6"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="str">
@@ -2494,7 +2497,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E116" s="6"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="str">
@@ -2509,7 +2512,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="str">
@@ -2524,7 +2527,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E118" s="6"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="2" t="str">
@@ -2539,7 +2542,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="2" t="str">
@@ -2554,7 +2557,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" s="2" t="str">
@@ -2569,7 +2572,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E121" s="6"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" s="2" t="str">
@@ -2584,7 +2587,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E122" s="6"/>
+      <c r="E122" s="5"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="2" t="str">
@@ -2599,7 +2602,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="5"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="2" t="str">
@@ -2614,7 +2617,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E124" s="6"/>
+      <c r="E124" s="5"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="2" t="str">
@@ -2629,7 +2632,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E125" s="6"/>
+      <c r="E125" s="5"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" s="2" t="str">
@@ -2644,7 +2647,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E126" s="6"/>
+      <c r="E126" s="5"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" s="2" t="str">
@@ -2659,7 +2662,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E127" s="6"/>
+      <c r="E127" s="5"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" s="2" t="str">
@@ -2674,7 +2677,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E128" s="6"/>
+      <c r="E128" s="5"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="2" t="str">
@@ -2689,7 +2692,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E129" s="6"/>
+      <c r="E129" s="5"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="2" t="str">
@@ -2704,7 +2707,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E130" s="6"/>
+      <c r="E130" s="5"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="2" t="str">
@@ -2719,7 +2722,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E131" s="6"/>
+      <c r="E131" s="5"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="2" t="str">
@@ -2734,7 +2737,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E132" s="6"/>
+      <c r="E132" s="5"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="2" t="str">
@@ -2749,7 +2752,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E133" s="6"/>
+      <c r="E133" s="5"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="2" t="str">
@@ -2764,7 +2767,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E134" s="6"/>
+      <c r="E134" s="5"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="2" t="str">
@@ -2779,7 +2782,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E135" s="6"/>
+      <c r="E135" s="5"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="2" t="str">
@@ -2794,7 +2797,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E136" s="6"/>
+      <c r="E136" s="5"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="2" t="str">
@@ -2809,7 +2812,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E137" s="6"/>
+      <c r="E137" s="5"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="2" t="str">
@@ -2824,7 +2827,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E138" s="6"/>
+      <c r="E138" s="5"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="2" t="str">
@@ -2839,7 +2842,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E139" s="6"/>
+      <c r="E139" s="5"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="2" t="str">
@@ -2854,7 +2857,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E140" s="6"/>
+      <c r="E140" s="5"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="2" t="str">
@@ -2869,7 +2872,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E141" s="6"/>
+      <c r="E141" s="5"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="2" t="str">
@@ -2884,7 +2887,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="E142" s="6"/>
+      <c r="E142" s="5"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" s="2" t="str">
@@ -2899,7 +2902,7 @@
         <f t="shared" ref="D143:D164" si="8">IF(COUNTIF(E143,"*SUMMARY*")&gt;0,RIGHT(E143, LEN(E143)-20),"")</f>
         <v/>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="5"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="2" t="str">
@@ -2914,7 +2917,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E144" s="6"/>
+      <c r="E144" s="5"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="2" t="str">
@@ -2929,7 +2932,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E145" s="6"/>
+      <c r="E145" s="5"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="2" t="str">
@@ -2944,7 +2947,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E146" s="6"/>
+      <c r="E146" s="5"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="2" t="str">
@@ -2959,7 +2962,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E147" s="6"/>
+      <c r="E147" s="5"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="2" t="str">
@@ -2974,7 +2977,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E148" s="6"/>
+      <c r="E148" s="5"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="2" t="str">
@@ -2989,7 +2992,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E149" s="6"/>
+      <c r="E149" s="5"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="2" t="str">
@@ -3004,7 +3007,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E150" s="6"/>
+      <c r="E150" s="5"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="2" t="str">
@@ -3019,7 +3022,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E151" s="6"/>
+      <c r="E151" s="5"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="2" t="str">
@@ -3034,7 +3037,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E152" s="6"/>
+      <c r="E152" s="5"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="2" t="str">
@@ -3049,7 +3052,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E153" s="6"/>
+      <c r="E153" s="5"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="2" t="str">
@@ -3064,7 +3067,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E154" s="6"/>
+      <c r="E154" s="5"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="2" t="str">
@@ -3079,7 +3082,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E155" s="6"/>
+      <c r="E155" s="5"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="2" t="str">
@@ -3094,7 +3097,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E156" s="6"/>
+      <c r="E156" s="5"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="2" t="str">
@@ -3109,7 +3112,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E157" s="6"/>
+      <c r="E157" s="5"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="2" t="str">
@@ -3124,7 +3127,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E158" s="6"/>
+      <c r="E158" s="5"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" s="2" t="str">
@@ -3139,7 +3142,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E159" s="6"/>
+      <c r="E159" s="5"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="2" t="str">
@@ -3154,7 +3157,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E160" s="6"/>
+      <c r="E160" s="5"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" s="2" t="str">
@@ -3169,7 +3172,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E161" s="6"/>
+      <c r="E161" s="5"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="2" t="str">
@@ -3184,7 +3187,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E162" s="6"/>
+      <c r="E162" s="5"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" s="2" t="str">
@@ -3199,7 +3202,7 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="E163" s="6"/>
+      <c r="E163" s="5"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" s="2" t="str">
